--- a/data/prematurity April 2023/Perinatal Deaths and cause by quarter.xlsx
+++ b/data/prematurity April 2023/Perinatal Deaths and cause by quarter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Desktop\PDSR Q1 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Desktop\R project doc_E4H\E4H-Zambia\data\prematurity April 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA959FFD-0D8E-45E6-B93C-2C7D2FFCFA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8610801A-FE42-4F6A-91DA-FC5FB1758547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{27098FDA-9E6B-4CC7-BBFC-C52454E41C21}"/>
   </bookViews>
@@ -441,7 +441,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
